--- a/submission_info/GEO_submission_files/ChIP_submission.xlsx
+++ b/submission_info/GEO_submission_files/ChIP_submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/znrz2930_kcl_ac_uk/Documents/Sox8 paper/Buzzi_Chen_Thiery et al/Buzzi etal/RawDataSubmissionFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/dev/repos/otic-reprogramming/submission_info/GEO_submission_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{4B1D1093-824C-AD47-AA45-815E5798D99D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{18FBE26E-4420-498B-9B86-62ECBE5EBA46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9C353-560A-6E41-8A44-FB555A0CCF9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27640" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA TEMPLATE " sheetId="1" r:id="rId1"/>
@@ -2538,9 +2538,6 @@
     <t>Data was processed and aligned using the NF-core ChIPseq v1.2.0 pipeline (doi: 10.5281/zenodo.2634132).</t>
   </si>
   <si>
-    <t>Reads were trimmed using Trim Galore! Reads were aligned using BWA. Narrow peaks were called using MACS2 with an effective genome size of 1.05e9.</t>
-  </si>
-  <si>
     <t>genome build</t>
   </si>
   <si>
@@ -3067,6 +3064,9 @@
   </si>
   <si>
     <t xml:space="preserve">200 pieces OEP tissue from ss8-9 chick embryos was manually dissected, dissociated and processed for ChIPseq library preparation using antibodies for H3K27Ac, H3K27me3 and H3K4me3. </t>
+  </si>
+  <si>
+    <t>Reads were trimmed using Trim Galore! Reads were aligned using BWA. Broad peaks were called using MACS2 with an effective genome size of 1.05e9.</t>
   </si>
 </sst>
 </file>
@@ -3592,22 +3592,22 @@
   </sheetPr>
   <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.69140625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.15234375" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="28.69140625" style="20"/>
+    <col min="1" max="1" width="42.1640625" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3643,14 +3643,14 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3696,12 +3696,12 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -3713,7 +3713,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -3777,14 +3777,14 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -3793,17 +3793,17 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
         <v>22</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>23</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
@@ -3862,13 +3862,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>37</v>
@@ -3884,7 +3884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>36</v>
@@ -3914,7 +3914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>36</v>
@@ -3944,7 +3944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
         <v>49</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>36</v>
@@ -3973,44 +3973,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="18"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>56</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -4051,25 +4051,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -4077,26 +4077,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>67</v>
       </c>
@@ -4105,264 +4105,264 @@
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="C49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="B51" s="14"/>
       <c r="C51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+    <row r="54" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
+      <c r="B54" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="C54" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="31" t="s">
+    </row>
+    <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="B55" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="14" t="s">
+    </row>
+    <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="B56" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="14" t="s">
+    </row>
+    <row r="57" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="B57" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="14" t="s">
+    </row>
+    <row r="58" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-    </row>
-    <row r="59" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+    <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="29" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
+      <c r="D60" s="29"/>
+    </row>
+    <row r="61" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="29"/>
-    </row>
-    <row r="61" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="30" t="s">
+      <c r="E61" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>88</v>
-      </c>
       <c r="F61" s="30"/>
     </row>
-    <row r="62" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>39</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" t="s">
         <v>89</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>91</v>
-      </c>
       <c r="F62" s="24"/>
     </row>
-    <row r="63" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="24"/>
     </row>
-    <row r="64" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>43</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F64" s="24"/>
     </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66" s="24"/>
     </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>48</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F67" s="24"/>
     </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" s="24"/>
     </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="35" t="s">
         <v>52</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="24"/>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="24"/>
+    </row>
+    <row r="72" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="24"/>
-    </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F71" s="24"/>
-    </row>
-    <row r="72" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
+    </row>
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29" t="s">
+    <row r="74" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
+      <c r="B74" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -4394,488 +4394,488 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="27"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="27"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="27"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="27"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="27"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="27"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="27"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="27"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" s="27"/>
     </row>
   </sheetData>
@@ -4903,19 +4903,19 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.69140625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.15234375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="40.69140625" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="28.69140625" style="20"/>
+    <col min="1" max="1" width="42.1640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="28.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4963,7 +4963,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4983,67 +4983,67 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="7"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="7"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="14"/>
       <c r="C15" s="7"/>
@@ -5061,7 +5061,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -5071,17 +5071,17 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="38" t="s">
         <v>22</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
     </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -5108,19 +5108,19 @@
         <v>25</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>113</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>29</v>
@@ -5141,279 +5141,279 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L21" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="N21" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="N22" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N22" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="H23" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>38</v>
       </c>
       <c r="M23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="B24" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="C24" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>134</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>38</v>
       </c>
       <c r="L24" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="N24" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>67</v>
       </c>
@@ -5423,43 +5423,43 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="14"/>
       <c r="C45" s="8"/>
@@ -5467,719 +5467,719 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+    <row r="48" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
+      <c r="B48" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="C48" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="12" t="s">
+      <c r="B52" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="12" t="s">
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
     </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
     </row>
-    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="30" t="s">
+      <c r="D61" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="E62" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="12" t="s">
+    </row>
+    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D63" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="12" t="s">
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D64" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E63" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>160</v>
-      </c>
       <c r="F64" s="24"/>
     </row>
-    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F66" s="24"/>
     </row>
-    <row r="67" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29" t="s">
+    <row r="69" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="B69" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="27"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="27"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="27"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="27"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="27"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="27"/>
     </row>
   </sheetData>
@@ -6203,19 +6203,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.3828125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="37.3828125" style="20" customWidth="1"/>
-    <col min="3" max="15" width="22.69140625" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="37.3828125" style="20"/>
+    <col min="1" max="2" width="37.33203125" style="20" customWidth="1"/>
+    <col min="3" max="15" width="22.6640625" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="37.33203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6233,7 +6233,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6251,14 +6251,14 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -6276,113 +6276,113 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="7"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="7"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="7"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="14"/>
       <c r="C18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -6391,17 +6391,17 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38" t="s">
         <v>22</v>
       </c>
@@ -6414,7 +6414,7 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
     </row>
-    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>23</v>
       </c>
@@ -6428,22 +6428,22 @@
         <v>25</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="I23" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>29</v>
@@ -6461,186 +6461,186 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="D24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" t="s">
         <v>177</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>178</v>
-      </c>
-      <c r="H24" t="s">
-        <v>179</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>182</v>
-      </c>
       <c r="O24" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="G25" t="s">
         <v>177</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>178</v>
-      </c>
-      <c r="H25" t="s">
-        <v>179</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M25" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N25" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="N25" s="25" t="s">
-        <v>185</v>
-      </c>
       <c r="O25" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" t="s">
         <v>186</v>
-      </c>
-      <c r="C26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" t="s">
-        <v>187</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M26" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="O26" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="O26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>191</v>
-      </c>
       <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" t="s">
         <v>177</v>
       </c>
-      <c r="G27" t="s">
-        <v>178</v>
-      </c>
       <c r="H27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M27" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="O27" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="O27" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="12"/>
       <c r="B28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>55</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>56</v>
       </c>
@@ -6658,85 +6658,85 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
@@ -6745,833 +6745,833 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="14"/>
       <c r="C48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+    <row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
+      <c r="B51" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="C51" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="12" t="s">
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="12" t="s">
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="12" t="s">
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>208</v>
-      </c>
       <c r="C56" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
     </row>
-    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="30" t="s">
+      <c r="D61" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="33"/>
+    </row>
+    <row r="62" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+      <c r="C62" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
+      <c r="B64" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="D65" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="33"/>
+    </row>
+    <row r="66" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B66" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="33"/>
+    </row>
+    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+      <c r="D68" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="27"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="27"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="27"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="27"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="27"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="27"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="27"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="27"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="27"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="27"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="27"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="27"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="27"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="27"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="27"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="27"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="27"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="27"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="27"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="27"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="27"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="27"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="27"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="27"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="27"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="27"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="27"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="27"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="27"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="27"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="27"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="27"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="27"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="27"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="27"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="27"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="27"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="27"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="27"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="27"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="27"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="27"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="27"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="27"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="27"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="27"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="27"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="27"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="27"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="27"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="27"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="27"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="27"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="27"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="27"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="27"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="27"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="27"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="27"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="27"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="27"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="27"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="27"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="27"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="27"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="27"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="27"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="27"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="27"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="27"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="27"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="27"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="27"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="27"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="27"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="27"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="27"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="27"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="27"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="27"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="27"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="27"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="27"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="27"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="27"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="27"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="27"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="27"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="27"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="27"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="27"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="27"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="27"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="27"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="27"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="27"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="27"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="27"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="27"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="27"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="27"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="27"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="27"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="27"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="27"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="27"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="27"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="27"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="27"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="27"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="27"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="27"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="27"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="27"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="27"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="27"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="27"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="27"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="27"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="27"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="27"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="27"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="27"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="27"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="27"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="27"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="27"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="27"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="27"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="27"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="27"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="27"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="27"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="27"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="27"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="27"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="27"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="27"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="27"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="27"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="27"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="27"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="27"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="27"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="27"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="27"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="27"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="27"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="27"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="27"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="27"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="27"/>
     </row>
   </sheetData>
